--- a/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>31093</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22982</v>
+        <v>23716</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41028</v>
+        <v>40515</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1075263014035122</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07947531211221438</v>
+        <v>0.08201428072463283</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1418821950539146</v>
+        <v>0.140111488381815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -762,19 +762,19 @@
         <v>85272</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72472</v>
+        <v>74402</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98725</v>
+        <v>99026</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1589056997531583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1350522201687025</v>
+        <v>0.1386488877611912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1839756311757979</v>
+        <v>0.1845377017144866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>226</v>
@@ -783,19 +783,19 @@
         <v>116365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100763</v>
+        <v>102212</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>131655</v>
+        <v>132336</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1409141366693341</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1220207851215825</v>
+        <v>0.1237753943539963</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1594298037188624</v>
+        <v>0.1602550109377567</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3337</v>
+        <v>3578</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11795</v>
+        <v>12590</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02316730488389775</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01153903533182617</v>
+        <v>0.0123751791913642</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04079120901093226</v>
+        <v>0.04353901977938613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -833,19 +833,19 @@
         <v>29181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21840</v>
+        <v>21744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38935</v>
+        <v>38478</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.05437899353281036</v>
+        <v>0.05437899353281034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04069888891748</v>
+        <v>0.0405208614136974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07255524601857141</v>
+        <v>0.07170396850605897</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -854,19 +854,19 @@
         <v>35880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27507</v>
+        <v>26404</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46221</v>
+        <v>46032</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04344957272764323</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03331045240781359</v>
+        <v>0.03197404723975941</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05597230711327828</v>
+        <v>0.0557433719328462</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>16506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10417</v>
+        <v>10742</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24711</v>
+        <v>25202</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05708029599926136</v>
+        <v>0.05708029599926137</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03602564876387416</v>
+        <v>0.0371477405635908</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08545704590493981</v>
+        <v>0.08715574149504922</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>100</v>
@@ -904,19 +904,19 @@
         <v>56600</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46356</v>
+        <v>46438</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68325</v>
+        <v>67519</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1054745851092124</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08638440447604621</v>
+        <v>0.08653777843430643</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1273246130917252</v>
+        <v>0.1258230753887513</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>123</v>
@@ -925,19 +925,19 @@
         <v>73105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60856</v>
+        <v>61144</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85956</v>
+        <v>86648</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08852832000323906</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07369513651399182</v>
+        <v>0.07404290359039743</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1040897657563736</v>
+        <v>0.1049285717206772</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>18111</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11892</v>
+        <v>12426</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25085</v>
+        <v>24957</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06263106289664438</v>
+        <v>0.0626310628966444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04112558247357581</v>
+        <v>0.04297182190307964</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08675018445239299</v>
+        <v>0.08630826901187993</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -975,19 +975,19 @@
         <v>58646</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47449</v>
+        <v>47854</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69423</v>
+        <v>70022</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1092885402556623</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08842178116654308</v>
+        <v>0.08917597576824578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1293705292454267</v>
+        <v>0.1304871705619186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -996,19 +996,19 @@
         <v>76757</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64221</v>
+        <v>65003</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90577</v>
+        <v>92367</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0929504558443906</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07776961521065648</v>
+        <v>0.07871643717797241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1096853878462646</v>
+        <v>0.1118538656020719</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>216757</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>203934</v>
+        <v>202927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>228450</v>
+        <v>227698</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7495950348166842</v>
+        <v>0.7495950348166843</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7052474129753014</v>
+        <v>0.7017676231504938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7900290262994065</v>
+        <v>0.7874297985735752</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>580</v>
@@ -1046,19 +1046,19 @@
         <v>306920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>288916</v>
+        <v>290202</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>324465</v>
+        <v>323424</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5719521813491567</v>
+        <v>0.5719521813491566</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5384009015828891</v>
+        <v>0.5407965985339838</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6046459632968522</v>
+        <v>0.6027066389847677</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>893</v>
@@ -1067,19 +1067,19 @@
         <v>523678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>502356</v>
+        <v>500500</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>543615</v>
+        <v>545950</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6341575147553931</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6083373962672988</v>
+        <v>0.6060904645340387</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6583014033219983</v>
+        <v>0.6611287045927764</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>6031</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3126</v>
+        <v>3010</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10335</v>
+        <v>10773</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01985127027870664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01028832748151393</v>
+        <v>0.009908238868535646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03401771068338848</v>
+        <v>0.03545843589689444</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1192,19 +1192,19 @@
         <v>9518</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5588</v>
+        <v>5633</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14811</v>
+        <v>15375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03428106193707862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02012807112877766</v>
+        <v>0.0202889655995181</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05334618554733905</v>
+        <v>0.05537618562319929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1213,19 +1213,19 @@
         <v>15549</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10461</v>
+        <v>10713</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22337</v>
+        <v>23140</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02674133247182936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01799104896258672</v>
+        <v>0.01842335838611587</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03841460195108474</v>
+        <v>0.03979643012931298</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>3323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1175</v>
+        <v>1270</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7169</v>
+        <v>7494</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01093769617084149</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00386722184677607</v>
+        <v>0.004179071080521219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02359438402951143</v>
+        <v>0.0246659882012859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1263,19 +1263,19 @@
         <v>3567</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1606</v>
+        <v>1462</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8022</v>
+        <v>7649</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01284802678690956</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0057832352281913</v>
+        <v>0.005266220792428302</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02889198715907028</v>
+        <v>0.0275511855535228</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1284,19 +1284,19 @@
         <v>6890</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3792</v>
+        <v>3559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11846</v>
+        <v>12310</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01184985741791666</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006521302921484114</v>
+        <v>0.006121382992647572</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02037294221755535</v>
+        <v>0.02116977412083763</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>7700</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3717</v>
+        <v>3656</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13128</v>
+        <v>13931</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02534323972143138</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01223320151279981</v>
+        <v>0.01203331374668655</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04321052278644871</v>
+        <v>0.04585218795588714</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -1334,19 +1334,19 @@
         <v>10352</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6307</v>
+        <v>6175</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16585</v>
+        <v>16388</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03728609885216361</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02271608287641531</v>
+        <v>0.02224214206150703</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05973345135139844</v>
+        <v>0.05902352857480775</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>28</v>
@@ -1355,19 +1355,19 @@
         <v>18052</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11853</v>
+        <v>12112</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25711</v>
+        <v>25820</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0310458197809783</v>
+        <v>0.03104581978097831</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0203852090659025</v>
+        <v>0.02082924273255392</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04421784341964911</v>
+        <v>0.04440484961649171</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>11173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6760</v>
+        <v>7019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18255</v>
+        <v>17387</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03677534292655488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02224926801563167</v>
+        <v>0.023100768571654</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06008431396256498</v>
+        <v>0.05722546387064276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1405,19 +1405,19 @@
         <v>18177</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12672</v>
+        <v>13037</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25664</v>
+        <v>25557</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0654699106350411</v>
+        <v>0.06546991063504108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04564240040105805</v>
+        <v>0.04695518684589333</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09243537704827716</v>
+        <v>0.09204965752443223</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -1426,19 +1426,19 @@
         <v>29351</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21585</v>
+        <v>22159</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37237</v>
+        <v>38102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05047667422758816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03712069989456632</v>
+        <v>0.03810885173709345</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06403900045819329</v>
+        <v>0.06552673689736735</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>275597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>265724</v>
+        <v>266870</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>283034</v>
+        <v>283548</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9070924509024655</v>
+        <v>0.9070924509024657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8745949896273504</v>
+        <v>0.8783667805244676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9315700921337712</v>
+        <v>0.9332607151785852</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>451</v>
@@ -1476,19 +1476,19 @@
         <v>236031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226617</v>
+        <v>226411</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>245078</v>
+        <v>244446</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8501149017888072</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8162080663714645</v>
+        <v>0.8154659508601179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8826987433540111</v>
+        <v>0.8804233380784235</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>834</v>
@@ -1497,19 +1497,19 @@
         <v>511628</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>499071</v>
+        <v>498567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>523353</v>
+        <v>524377</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8798863161016874</v>
+        <v>0.8798863161016875</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8582908803587508</v>
+        <v>0.8574235725449657</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9000502659672648</v>
+        <v>0.9018105760897687</v>
       </c>
     </row>
     <row r="15">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9130</v>
+        <v>8701</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01787325572573254</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07680015359195583</v>
+        <v>0.07319010317315675</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3209</v>
+        <v>3258</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007881678711212533</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03872484097229695</v>
+        <v>0.0393157837446087</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1643,19 +1643,19 @@
         <v>2778</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9313</v>
+        <v>9489</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01376960691901362</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00325248684015367</v>
+        <v>0.003257756402421292</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04616343761401243</v>
+        <v>0.04703621599288132</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>2226</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5864</v>
+        <v>6165</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01872213478744233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005075595668355077</v>
+        <v>0.005092977302277191</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04932500449320132</v>
+        <v>0.05185978748313684</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1706,19 +1706,19 @@
         <v>2226</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6533</v>
+        <v>6507</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01103275142302763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002944812586032554</v>
+        <v>0.003016651678265056</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03238461759038799</v>
+        <v>0.03225670845563813</v>
       </c>
     </row>
     <row r="18">
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2762</v>
+        <v>2812</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.004650914217893046</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02323685997686317</v>
+        <v>0.02365191575301083</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1756,19 +1756,19 @@
         <v>3846</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1579</v>
+        <v>1411</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7876</v>
+        <v>8188</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04642018931867108</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01905669019003292</v>
+        <v>0.01703300081058742</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09505858094694268</v>
+        <v>0.09881958324332867</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1777,19 +1777,19 @@
         <v>4399</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1786</v>
+        <v>1968</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>8434</v>
+        <v>8942</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02180600752055488</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008852072704033018</v>
+        <v>0.009755257561919219</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04180799852543199</v>
+        <v>0.04432348675143723</v>
       </c>
     </row>
     <row r="19">
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4081</v>
+        <v>3679</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009822987696201921</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03433040501725285</v>
+        <v>0.03094699113647174</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1827,19 +1827,19 @@
         <v>3784</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1575</v>
+        <v>1522</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7439</v>
+        <v>7539</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04566974455718768</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01900578441797712</v>
+        <v>0.01837539397806557</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08978763090791907</v>
+        <v>0.09098546901960342</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1848,19 +1848,19 @@
         <v>4952</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2258</v>
+        <v>2467</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9933</v>
+        <v>9141</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02454563866546878</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0111922460091906</v>
+        <v>0.01222718857610276</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04923532635118957</v>
+        <v>0.04530992579088262</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>112810</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107141</v>
+        <v>106523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116167</v>
+        <v>116482</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9489307075727301</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9012448200402917</v>
+        <v>0.8960508812345481</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9771689807814867</v>
+        <v>0.9798191730103786</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>138</v>
@@ -1898,19 +1898,19 @@
         <v>74572</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69336</v>
+        <v>69836</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78085</v>
+        <v>78130</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9000283874129287</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8368378472819178</v>
+        <v>0.8428643299385856</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9424246854622681</v>
+        <v>0.9429775276184876</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>298</v>
@@ -1919,19 +1919,19 @@
         <v>187382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>180363</v>
+        <v>180108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>192571</v>
+        <v>192780</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9288459954719352</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.894055958431032</v>
+        <v>0.8927915178232545</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9545709235557668</v>
+        <v>0.9556060762525916</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>39249</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30076</v>
+        <v>30682</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50023</v>
+        <v>50680</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05513496903557939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04224966158949164</v>
+        <v>0.04309996933646961</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0702699267283364</v>
+        <v>0.07119242053486172</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>192</v>
@@ -2044,19 +2044,19 @@
         <v>95443</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81495</v>
+        <v>82334</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110885</v>
+        <v>109435</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1063880688427607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09084013953558508</v>
+        <v>0.09177541819887602</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1236015852861765</v>
+        <v>0.1219847918095151</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>257</v>
@@ -2065,19 +2065,19 @@
         <v>134692</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>118640</v>
+        <v>117928</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>150760</v>
+        <v>151415</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08371198613004664</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07373551917822797</v>
+        <v>0.07329331687686766</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09369837968898277</v>
+        <v>0.09410573581652017</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>12248</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7101</v>
+        <v>7098</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18986</v>
+        <v>19059</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01720540511017222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009975618137544853</v>
+        <v>0.00997073328420423</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02667016623365389</v>
+        <v>0.02677263513275814</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>59</v>
@@ -2115,19 +2115,19 @@
         <v>32748</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24657</v>
+        <v>25497</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>42685</v>
+        <v>42544</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03650348577921401</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02748478121781089</v>
+        <v>0.02842080422750405</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04757962818090353</v>
+        <v>0.04742235008172388</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>77</v>
@@ -2136,19 +2136,19 @@
         <v>44996</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>35470</v>
+        <v>35150</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56779</v>
+        <v>56684</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02796537052191</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02204472632995468</v>
+        <v>0.02184607377913278</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03528856790707979</v>
+        <v>0.03522955584828053</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>24758</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16954</v>
+        <v>17413</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34129</v>
+        <v>33967</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03477941690624092</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02381543538016557</v>
+        <v>0.02446080978938987</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04794230984886367</v>
+        <v>0.04771570920476809</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>124</v>
@@ -2186,19 +2186,19 @@
         <v>70798</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>58024</v>
+        <v>58638</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>83107</v>
+        <v>84026</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07891715383691675</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06467863162165488</v>
+        <v>0.06536227495952131</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09263750907144505</v>
+        <v>0.09366167182241009</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>158</v>
@@ -2207,19 +2207,19 @@
         <v>95557</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>81642</v>
+        <v>81362</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>110274</v>
+        <v>112409</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05938914524509724</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05074085449983502</v>
+        <v>0.050567317020815</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06853632441164838</v>
+        <v>0.06986288206938596</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>30452</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22693</v>
+        <v>22785</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40759</v>
+        <v>39840</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04277708281965458</v>
+        <v>0.04277708281965457</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03187780949259639</v>
+        <v>0.03200648171892653</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05725674153783141</v>
+        <v>0.05596535529924149</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>152</v>
@@ -2257,19 +2257,19 @@
         <v>80608</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69322</v>
+        <v>68075</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94103</v>
+        <v>93376</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08985167487419189</v>
+        <v>0.08985167487419191</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07727186843981797</v>
+        <v>0.07588140294302913</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.10489505464956</v>
+        <v>0.1040843167545133</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>200</v>
@@ -2278,19 +2278,19 @@
         <v>111060</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>95772</v>
+        <v>96754</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>127475</v>
+        <v>128487</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06902430351300853</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05952297090205668</v>
+        <v>0.06013339204727675</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07922656816088737</v>
+        <v>0.07985548949737326</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>605165</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>586300</v>
+        <v>587583</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>619670</v>
+        <v>620403</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8501031261283528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8236033136682765</v>
+        <v>0.8254058670131065</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8704790448038331</v>
+        <v>0.8715096586993675</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1169</v>
@@ -2328,19 +2328,19 @@
         <v>617523</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>596184</v>
+        <v>596594</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>638397</v>
+        <v>637305</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6883396166669167</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6645536577922158</v>
+        <v>0.6650098586704327</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7116067860548102</v>
+        <v>0.7103903148810411</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2025</v>
@@ -2349,19 +2349,19 @@
         <v>1222688</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1196848</v>
+        <v>1197303</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1250227</v>
+        <v>1249179</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7599091945899376</v>
+        <v>0.7599091945899377</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7438497613806562</v>
+        <v>0.7441326299329166</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7770251342752519</v>
+        <v>0.7763735861755974</v>
       </c>
     </row>
     <row r="27">
